--- a/ValueSet-bw-lab-order-code-vs.xlsx
+++ b/ValueSet-bw-lab-order-code-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-23T10:07:07+00:00</t>
+    <t>2022-02-23T10:14:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bw-lab-order-code-vs.xlsx
+++ b/ValueSet-bw-lab-order-code-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-23T10:14:18+00:00</t>
+    <t>2022-02-23T10:23:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bw-lab-order-code-vs.xlsx
+++ b/ValueSet-bw-lab-order-code-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-23T10:23:47+00:00</t>
+    <t>2022-02-23T10:42:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bw-lab-order-code-vs.xlsx
+++ b/ValueSet-bw-lab-order-code-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-23T10:42:10+00:00</t>
+    <t>2022-02-23T10:49:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bw-lab-order-code-vs.xlsx
+++ b/ValueSet-bw-lab-order-code-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-23T10:49:18+00:00</t>
+    <t>2022-02-23T11:09:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bw-lab-order-code-vs.xlsx
+++ b/ValueSet-bw-lab-order-code-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-23T11:09:08+00:00</t>
+    <t>2022-02-23T11:19:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bw-lab-order-code-vs.xlsx
+++ b/ValueSet-bw-lab-order-code-vs.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://b-techbw.github.io/bw-lab-ig/ValueSet/bw-lab-order-code-vs</t>
+    <t>http://simplifier.net/ISiK/ValueSet/bw-lab-order-code-vs</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-23T11:19:10+00:00</t>
+    <t>2022-02-23T11:46:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bw-lab-order-code-vs.xlsx
+++ b/ValueSet-bw-lab-order-code-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-23T11:46:26+00:00</t>
+    <t>2022-02-23T12:05:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bw-lab-order-code-vs.xlsx
+++ b/ValueSet-bw-lab-order-code-vs.xlsx
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-23T12:05:26+00:00</t>
+    <t>2022-02-23T12:12:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>B-TECHBW</t>
+    <t>gematik</t>
   </si>
   <si>
     <t>Contact</t>

--- a/ValueSet-bw-lab-order-code-vs.xlsx
+++ b/ValueSet-bw-lab-order-code-vs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-23T12:12:15+00:00</t>
+    <t>2022-02-23T12:18:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -70,15 +70,6 @@
   </si>
   <si>
     <t>No display for ContactDetail</t>
-  </si>
-  <si>
-    <t>Jurisdiction</t>
-  </si>
-  <si>
-    <t>Botswana (BWA)</t>
-  </si>
-  <si>
-    <t>Botswana</t>
   </si>
   <si>
     <t>Description</t>
@@ -245,7 +236,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -343,38 +334,22 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="B12" t="s" s="2">
         <v>21</v>
       </c>
+      <c r="B12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B13" t="s" s="2">
-        <v>23</v>
-      </c>
+      <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s" s="2">
         <v>24</v>
-      </c>
-      <c r="B14" s="2"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="2">
-        <v>25</v>
-      </c>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -396,28 +371,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/ValueSet-bw-lab-order-code-vs.xlsx
+++ b/ValueSet-bw-lab-order-code-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-23T12:18:43+00:00</t>
+    <t>2022-02-23T12:22:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bw-lab-order-code-vs.xlsx
+++ b/ValueSet-bw-lab-order-code-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-23T12:22:10+00:00</t>
+    <t>2022-02-23T12:27:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bw-lab-order-code-vs.xlsx
+++ b/ValueSet-bw-lab-order-code-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-07T07:35:42+00:00</t>
+    <t>2022-03-07T07:44:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
